--- a/data/trans_dic/P3A_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,93%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>13,03; 18,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>22,22; 29,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>24,44; 31,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>22,19; 29,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>9,04; 13,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>9,72; 14,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>10,65; 16,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>16,14; 23,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>11,78; 15,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>16,73; 21,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>18,39; 22,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>19,97; 25,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,69%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>17,46; 22,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>24,88; 30,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,54; 34,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>12,67; 30,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>8,29; 12,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>11,77; 16,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>17,02; 22,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>21,63; 26,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>13,38; 16,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>18,94; 22,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>23,56; 27,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,97; 27,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,25%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>20,73; 27,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>22,8; 30,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>29,35; 36,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>28,62; 36,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>11,41; 16,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,7; 19,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,13; 24,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>9,45; 24,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>16,85; 21,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>19,06; 23,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>24,56; 29,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>16,06; 28,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,22%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>20,96; 26,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>26,36; 32,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>33,47; 39,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>25,4; 31,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>10,82; 14,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>14,52; 19,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>16,95; 21,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>13,87; 19,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>16,09; 19,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>20,82; 24,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>25,63; 29,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>19,56; 24,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,26%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>19,52; 22,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>25,79; 29,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>30,9; 34,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>21,0; 29,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,89; 13,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,77; 16,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,19; 19,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>16,17; 21,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>15,46; 17,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>20,1; 22,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>24,29; 26,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>19,85; 25,19</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P3A_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,03; 18,61</t>
+          <t>13,06; 18,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 29,09</t>
+          <t>22,26; 29,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,44; 31,31</t>
+          <t>24,18; 31,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,19; 29,67</t>
+          <t>22,17; 29,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,74</t>
+          <t>9,13; 13,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,77</t>
+          <t>9,6; 14,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,07</t>
+          <t>10,9; 16,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,55</t>
+          <t>16,01; 23,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 15,46</t>
+          <t>11,81; 15,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,73; 21,01</t>
+          <t>16,69; 21,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,39; 22,76</t>
+          <t>18,31; 22,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,97; 25,4</t>
+          <t>20,12; 25,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 22,75</t>
+          <t>17,41; 22,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,88; 30,69</t>
+          <t>24,81; 30,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,54; 34,55</t>
+          <t>28,54; 34,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 30,52</t>
+          <t>12,69; 30,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,56</t>
+          <t>8,28; 12,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 16,13</t>
+          <t>11,76; 16,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 22,14</t>
+          <t>17,23; 22,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,63; 26,28</t>
+          <t>21,63; 26,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 16,82</t>
+          <t>13,48; 16,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,94; 22,9</t>
+          <t>18,86; 22,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,56; 27,42</t>
+          <t>23,38; 27,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 27,33</t>
+          <t>16,12; 27,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 27,93</t>
+          <t>21,18; 28,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,8; 30,02</t>
+          <t>23,11; 30,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,35; 36,2</t>
+          <t>29,35; 36,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,62; 36,17</t>
+          <t>28,47; 36,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 16,65</t>
+          <t>11,54; 16,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,25</t>
+          <t>13,53; 19,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 24,18</t>
+          <t>18,25; 23,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,45; 24,25</t>
+          <t>10,1; 24,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,36</t>
+          <t>17,1; 21,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 23,52</t>
+          <t>19,2; 23,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,56; 29,06</t>
+          <t>24,26; 29,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 28,47</t>
+          <t>15,63; 28,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 26,35</t>
+          <t>20,49; 25,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,36; 32,74</t>
+          <t>26,31; 32,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,47; 39,89</t>
+          <t>33,46; 39,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 31,42</t>
+          <t>25,36; 31,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,97</t>
+          <t>10,73; 15,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 19,29</t>
+          <t>14,82; 19,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 21,96</t>
+          <t>16,92; 21,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,29</t>
+          <t>13,67; 19,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 19,57</t>
+          <t>16,21; 19,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,82; 24,8</t>
+          <t>20,91; 24,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,63; 29,44</t>
+          <t>25,58; 29,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 24,17</t>
+          <t>19,7; 24,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,52; 22,43</t>
+          <t>19,39; 22,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,79; 29,14</t>
+          <t>25,89; 29,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,9; 34,2</t>
+          <t>30,85; 34,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,0; 29,72</t>
+          <t>21,19; 29,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,89; 13,16</t>
+          <t>10,9; 13,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,77; 16,28</t>
+          <t>13,57; 16,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,19; 19,88</t>
+          <t>17,28; 19,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,64</t>
+          <t>16,28; 21,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,27</t>
+          <t>15,51; 17,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,1; 22,11</t>
+          <t>20,02; 22,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,29; 26,38</t>
+          <t>24,19; 26,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,85; 25,19</t>
+          <t>20,2; 25,03</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>108853</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>179129</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>186099</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>77368</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>83342</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89909</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>149290</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>186221</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>262471</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>276008</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>311895</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>90612; 129604</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>156615; 204281</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>163138; 210478</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>140787; 186095</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62764; 94426</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66923; 104345</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73269; 109592</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>116101; 169831</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>163071; 213796</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>233745; 294816</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>246569; 307531</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>273667; 346947</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>191159</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>281597</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>321720</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>279557</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>99464</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>143101</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>203060</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>230190</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>290623</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>424698</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>524781</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>509747</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>167410; 220639</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>252259; 311419</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>291557; 353730</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>151332; 363708</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80171; 121705</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121434; 167858</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>179552; 231731</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>207341; 252793</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>260128; 323278</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>386444; 464645</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>482445; 566904</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>346775; 587163</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>165015</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>200435</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>247497</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>227488</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>95372</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>125726</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>162790</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>169661</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>260387</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>326161</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>410287</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>397150</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>143700; 190906</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>175110; 227298</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>221789; 274515</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>200624; 255838</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>78522; 115429</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>104882; 149629</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>142906; 186954</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>94239; 228623</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>232319; 293802</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>294281; 362641</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>373358; 447951</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>256033; 466731</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>219985</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>279586</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>341938</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>262580</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>132445</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>175963</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>201389</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>186186</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>352430</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>455549</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>543327</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>448766</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>192867; 243166</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>249356; 307996</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>312290; 368506</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>234867; 292226</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>111401; 156152</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>155912; 203305</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>176472; 227650</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>149554; 210387</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>321045; 390937</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>418171; 497036</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>505527; 583681</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>397820; 487366</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>685012</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>940747</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1097255</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>932230</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>404648</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>528131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>657148</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>735328</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1089661</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1468879</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1754403</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1667558</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>635310; 729493</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>886882; 993468</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1044449; 1158096</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>732759; 1022406</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>367940; 443267</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>482746; 572044</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>611538; 706442</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>604305; 803283</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1031181; 1145058</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1397854; 1539790</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1674992; 1826342</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1448600; 1794625</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>